--- a/ylSim/time_count/time.xlsx
+++ b/ylSim/time_count/time.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB5EF72-F1B0-4C67-8C40-9F4401773188}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D796ACB-E71E-4507-A414-CECEAC191236}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="13287" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2118" yWindow="2420" windowWidth="17425" windowHeight="9499" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="9">
   <si>
     <t>CTG Time</t>
   </si>
@@ -33,6 +33,26 @@
   </si>
   <si>
     <t>CPU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LSTM_metrics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ndcg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -370,15 +390,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H1048576"/>
+  <dimension ref="A1:M1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="M48" sqref="M48"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -403,8 +423,23 @@
       <c r="H1">
         <v>6.578125</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -423,8 +458,20 @@
       <c r="H2">
         <v>4.921875</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J2">
+        <v>0.81626736111111098</v>
+      </c>
+      <c r="K2">
+        <v>0.76467162280121803</v>
+      </c>
+      <c r="L2">
+        <v>0.72823311900517695</v>
+      </c>
+      <c r="M2">
+        <v>0.75183408431522902</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -443,8 +490,20 @@
       <c r="H3">
         <v>5.375</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J3">
+        <v>0.82071180555555501</v>
+      </c>
+      <c r="K3">
+        <v>0.76591639365536401</v>
+      </c>
+      <c r="L3">
+        <v>0.73913791274085305</v>
+      </c>
+      <c r="M3">
+        <v>0.76367453268350005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -463,8 +522,20 @@
       <c r="H4" s="2">
         <v>6.09375</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J4">
+        <v>0.85200520833333304</v>
+      </c>
+      <c r="K4">
+        <v>0.80568321537531096</v>
+      </c>
+      <c r="L4">
+        <v>0.76236230477039302</v>
+      </c>
+      <c r="M4">
+        <v>0.77752503793182803</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -483,8 +554,20 @@
       <c r="H5">
         <v>5.625</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J5">
+        <v>0.85355902777777704</v>
+      </c>
+      <c r="K5">
+        <v>0.767133483856829</v>
+      </c>
+      <c r="L5">
+        <v>0.75095502026568195</v>
+      </c>
+      <c r="M5">
+        <v>0.76089170957511898</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -503,8 +586,20 @@
       <c r="H6">
         <v>5.875</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J6">
+        <v>0.85013020833333297</v>
+      </c>
+      <c r="K6">
+        <v>0.77587177681387198</v>
+      </c>
+      <c r="L6">
+        <v>0.73829300091248595</v>
+      </c>
+      <c r="M6">
+        <v>0.75356254253327504</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -523,8 +618,20 @@
       <c r="H7">
         <v>4.28125</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J7">
+        <v>0.85085937499999997</v>
+      </c>
+      <c r="K7">
+        <v>0.80457411614121099</v>
+      </c>
+      <c r="L7">
+        <v>0.77566610166793903</v>
+      </c>
+      <c r="M7">
+        <v>0.78562104749283501</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -543,8 +650,20 @@
       <c r="H8">
         <v>4.625</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J8">
+        <v>0.86119791666666601</v>
+      </c>
+      <c r="K8">
+        <v>0.79830738807760804</v>
+      </c>
+      <c r="L8">
+        <v>0.75727608278159697</v>
+      </c>
+      <c r="M8">
+        <v>0.77642453076343698</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -563,8 +682,20 @@
       <c r="H9">
         <v>4.84375</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J9">
+        <v>0.83114583333333303</v>
+      </c>
+      <c r="K9">
+        <v>0.775908667007012</v>
+      </c>
+      <c r="L9">
+        <v>0.76339066876750705</v>
+      </c>
+      <c r="M9">
+        <v>0.74665965982867699</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -583,8 +714,20 @@
       <c r="H10">
         <v>4.5625</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J10">
+        <v>0.82658854166666595</v>
+      </c>
+      <c r="K10">
+        <v>0.77728429658576703</v>
+      </c>
+      <c r="L10">
+        <v>0.74347224874798301</v>
+      </c>
+      <c r="M10">
+        <v>0.74705968050960103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -603,8 +746,20 @@
       <c r="H11">
         <v>6.296875</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J11">
+        <v>0.830972222222222</v>
+      </c>
+      <c r="K11">
+        <v>0.77054642508227</v>
+      </c>
+      <c r="L11">
+        <v>0.73362064712248498</v>
+      </c>
+      <c r="M11">
+        <v>0.74901871162226397</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -623,8 +778,20 @@
       <c r="H12">
         <v>5.125</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J12">
+        <v>0.81487847222222198</v>
+      </c>
+      <c r="K12">
+        <v>0.78248061068833097</v>
+      </c>
+      <c r="L12">
+        <v>0.75175070028011104</v>
+      </c>
+      <c r="M12">
+        <v>0.76396680529079397</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -643,8 +810,20 @@
       <c r="H13">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J13">
+        <v>0.85810763888888797</v>
+      </c>
+      <c r="K13">
+        <v>0.79192090997237996</v>
+      </c>
+      <c r="L13">
+        <v>0.75563498694932496</v>
+      </c>
+      <c r="M13">
+        <v>0.76820847694038497</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -663,8 +842,20 @@
       <c r="H14">
         <v>5.421875</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J14">
+        <v>0.84030381944444399</v>
+      </c>
+      <c r="K14">
+        <v>0.787638733815204</v>
+      </c>
+      <c r="L14">
+        <v>0.76792390819964296</v>
+      </c>
+      <c r="M14">
+        <v>0.76612506589014295</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -683,8 +874,20 @@
       <c r="H15">
         <v>4.28125</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J15">
+        <v>0.84905381944444402</v>
+      </c>
+      <c r="K15">
+        <v>0.78453017570664596</v>
+      </c>
+      <c r="L15">
+        <v>0.749705603832442</v>
+      </c>
+      <c r="M15">
+        <v>0.76658250467697497</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -703,8 +906,20 @@
       <c r="H16">
         <v>4.515625</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J16">
+        <v>0.84862847222222204</v>
+      </c>
+      <c r="K16">
+        <v>0.76944117616452101</v>
+      </c>
+      <c r="L16">
+        <v>0.74595592214158302</v>
+      </c>
+      <c r="M16">
+        <v>0.75958888111246603</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -723,8 +938,20 @@
       <c r="H17">
         <v>5.796875</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J17">
+        <v>0.83633680555555501</v>
+      </c>
+      <c r="K17">
+        <v>0.77623180740827802</v>
+      </c>
+      <c r="L17">
+        <v>0.74445713702147498</v>
+      </c>
+      <c r="M17">
+        <v>0.75689778131441898</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -743,8 +970,20 @@
       <c r="H18">
         <v>4.21875</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J18">
+        <v>0.829878472222222</v>
+      </c>
+      <c r="K18">
+        <v>0.76938370759142805</v>
+      </c>
+      <c r="L18">
+        <v>0.74751111429420203</v>
+      </c>
+      <c r="M18">
+        <v>0.76644888954594204</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -763,8 +1002,20 @@
       <c r="H19">
         <v>4.46875</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J19">
+        <v>0.86186631944444403</v>
+      </c>
+      <c r="K19">
+        <v>0.78772346679056204</v>
+      </c>
+      <c r="L19">
+        <v>0.76278568245480005</v>
+      </c>
+      <c r="M19">
+        <v>0.76201598981416396</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -783,8 +1034,20 @@
       <c r="H20">
         <v>5.828125</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J20">
+        <v>0.86159722222222201</v>
+      </c>
+      <c r="K20">
+        <v>0.79658495150682596</v>
+      </c>
+      <c r="L20">
+        <v>0.74305887127578296</v>
+      </c>
+      <c r="M20">
+        <v>0.77197986480497705</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -803,8 +1066,20 @@
       <c r="H21">
         <v>5.734375</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J21">
+        <v>0.85614583333333305</v>
+      </c>
+      <c r="K21">
+        <v>0.76681299705196704</v>
+      </c>
+      <c r="L21">
+        <v>0.72378569041252805</v>
+      </c>
+      <c r="M21">
+        <v>0.747065915564183</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -823,8 +1098,20 @@
       <c r="H22">
         <v>6.421875</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J22">
+        <v>0.83843749999999995</v>
+      </c>
+      <c r="K22">
+        <v>0.76784233230005206</v>
+      </c>
+      <c r="L22">
+        <v>0.72980805958747097</v>
+      </c>
+      <c r="M22">
+        <v>0.741964561826989</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -843,8 +1130,20 @@
       <c r="H23">
         <v>6.34375</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J23">
+        <v>0.84534722222222203</v>
+      </c>
+      <c r="K23">
+        <v>0.78664387542604397</v>
+      </c>
+      <c r="L23">
+        <v>0.72421597805788895</v>
+      </c>
+      <c r="M23">
+        <v>0.75263709139360502</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -863,8 +1162,20 @@
       <c r="H24">
         <v>7.078125</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J24">
+        <v>0.85499131944444395</v>
+      </c>
+      <c r="K24">
+        <v>0.78413744343891401</v>
+      </c>
+      <c r="L24">
+        <v>0.71549235792801902</v>
+      </c>
+      <c r="M24">
+        <v>0.74365397092283203</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -884,7 +1195,7 @@
         <v>8.71875</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -904,7 +1215,7 @@
         <v>6.46875</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -924,7 +1235,7 @@
         <v>6.328125</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -943,8 +1254,24 @@
       <c r="H28">
         <v>5.625</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J28">
+        <f>AVERAGE(J2:J24)</f>
+        <v>0.84300045289855063</v>
+      </c>
+      <c r="K28">
+        <f>AVERAGE(K2:K24)</f>
+        <v>0.78075085101120067</v>
+      </c>
+      <c r="L28">
+        <f>AVERAGE(L2:L24)</f>
+        <v>0.74584752692249434</v>
+      </c>
+      <c r="M28">
+        <f>AVERAGE(M2:M24)</f>
+        <v>0.75997423201537584</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -964,7 +1291,7 @@
         <v>4.265625</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -984,7 +1311,7 @@
         <v>4.625</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -1004,7 +1331,7 @@
         <v>5.609375</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>0</v>
       </c>

--- a/ylSim/time_count/time.xlsx
+++ b/ylSim/time_count/time.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D796ACB-E71E-4507-A414-CECEAC191236}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{080E4A51-1250-48A5-A72D-C780ADB8921B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2118" yWindow="2420" windowWidth="17425" windowHeight="9499" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="13287" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="20">
   <si>
     <t>CTG Time</t>
   </si>
@@ -53,6 +53,50 @@
   </si>
   <si>
     <t>ndcg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lda</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ndcg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>top5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>top10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>top15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>top20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lucene</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -390,15 +434,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M1048576"/>
+  <dimension ref="A1:W1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="W8" sqref="W8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -438,8 +482,38 @@
       <c r="M1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>10</v>
+      </c>
+      <c r="U1" t="s">
+        <v>11</v>
+      </c>
+      <c r="V1" t="s">
+        <v>12</v>
+      </c>
+      <c r="W1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -470,8 +544,35 @@
       <c r="M2">
         <v>0.75183408431522902</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2">
+        <v>0.85396825396825404</v>
+      </c>
+      <c r="P2">
+        <v>0.76984126984126999</v>
+      </c>
+      <c r="Q2">
+        <v>0.59047619047619004</v>
+      </c>
+      <c r="R2">
+        <v>0.66034223912062595</v>
+      </c>
+      <c r="T2">
+        <v>0.65119047619047599</v>
+      </c>
+      <c r="U2">
+        <v>0.67023809523809497</v>
+      </c>
+      <c r="V2">
+        <v>0.72857142857142898</v>
+      </c>
+      <c r="W2">
+        <v>0.70729754038082204</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -502,8 +603,35 @@
       <c r="M3">
         <v>0.76367453268350005</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O3">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="P3">
+        <v>0.74750566893423998</v>
+      </c>
+      <c r="Q3">
+        <v>0.66550453514739205</v>
+      </c>
+      <c r="R3">
+        <v>0.67537848287394198</v>
+      </c>
+      <c r="T3">
+        <v>0.57142857142857095</v>
+      </c>
+      <c r="U3">
+        <v>0.63208616780045301</v>
+      </c>
+      <c r="V3">
+        <v>0.79195011337868404</v>
+      </c>
+      <c r="W3">
+        <v>0.68452640957177002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -534,8 +662,35 @@
       <c r="M4">
         <v>0.77752503793182803</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O4">
+        <v>0.79920634920634903</v>
+      </c>
+      <c r="P4">
+        <v>0.70881816596102298</v>
+      </c>
+      <c r="Q4">
+        <v>0.72549989692846795</v>
+      </c>
+      <c r="R4">
+        <v>0.67649423595026104</v>
+      </c>
+      <c r="T4">
+        <v>0.60634920634920597</v>
+      </c>
+      <c r="U4">
+        <v>0.67414490271633198</v>
+      </c>
+      <c r="V4">
+        <v>0.88021026592455098</v>
+      </c>
+      <c r="W4">
+        <v>0.70853086597442405</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -566,8 +721,35 @@
       <c r="M5">
         <v>0.76089170957511898</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N5" t="s">
+        <v>17</v>
+      </c>
+      <c r="O5">
+        <v>0.79603174603174598</v>
+      </c>
+      <c r="P5">
+        <v>0.74448197693995999</v>
+      </c>
+      <c r="Q5">
+        <v>0.78848185738942</v>
+      </c>
+      <c r="R5">
+        <v>0.69878986118724196</v>
+      </c>
+      <c r="T5">
+        <v>0.59556878306878303</v>
+      </c>
+      <c r="U5">
+        <v>0.68803593698551602</v>
+      </c>
+      <c r="V5">
+        <v>0.91122610660425796</v>
+      </c>
+      <c r="W5">
+        <v>0.71103812623114304</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -599,7 +781,7 @@
         <v>0.75356254253327504</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -631,7 +813,7 @@
         <v>0.78562104749283501</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -662,8 +844,11 @@
       <c r="M8">
         <v>0.77642453076343698</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="W8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -694,8 +879,40 @@
       <c r="M9">
         <v>0.74665965982867699</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O9">
+        <f>AVERAGE(O2:O5)</f>
+        <v>0.82063492063492049</v>
+      </c>
+      <c r="P9">
+        <f>AVERAGE(P2:P5)</f>
+        <v>0.74266177041912329</v>
+      </c>
+      <c r="Q9">
+        <f>AVERAGE(Q2:Q5)</f>
+        <v>0.69249061998536754</v>
+      </c>
+      <c r="R9">
+        <f>AVERAGE(R2:R5)</f>
+        <v>0.67775120478301776</v>
+      </c>
+      <c r="T9">
+        <f>AVERAGE(T2:T5)</f>
+        <v>0.6061342592592589</v>
+      </c>
+      <c r="U9">
+        <f>AVERAGE(U2:U5)</f>
+        <v>0.66612627568509897</v>
+      </c>
+      <c r="V9">
+        <f>AVERAGE(V2:V5)</f>
+        <v>0.82798947861973049</v>
+      </c>
+      <c r="W9">
+        <f>AVERAGE(W2:W5)</f>
+        <v>0.70284823553953979</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -727,7 +944,7 @@
         <v>0.74705968050960103</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -759,7 +976,7 @@
         <v>0.74901871162226397</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -791,7 +1008,7 @@
         <v>0.76396680529079397</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -823,7 +1040,7 @@
         <v>0.76820847694038497</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -855,7 +1072,7 @@
         <v>0.76612506589014295</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -887,7 +1104,7 @@
         <v>0.76658250467697497</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>0</v>
       </c>

--- a/ylSim/time_count/time.xlsx
+++ b/ylSim/time_count/time.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{080E4A51-1250-48A5-A72D-C780ADB8921B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C81108AD-4D2F-4103-8244-A92C1AC7157E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="13287" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="750" yWindow="750" windowWidth="17425" windowHeight="9499" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -436,8 +436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="W8" sqref="W8"/>
+    <sheetView tabSelected="1" topLeftCell="E18" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29:M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -1411,6 +1411,18 @@
       <c r="H25">
         <v>8.71875</v>
       </c>
+      <c r="J25">
+        <v>0.84885416666666602</v>
+      </c>
+      <c r="K25">
+        <v>0.77527182988580001</v>
+      </c>
+      <c r="L25">
+        <v>0.74900922300738404</v>
+      </c>
+      <c r="M25">
+        <v>0.77130107829459804</v>
+      </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -1471,22 +1483,6 @@
       <c r="H28">
         <v>5.625</v>
       </c>
-      <c r="J28">
-        <f>AVERAGE(J2:J24)</f>
-        <v>0.84300045289855063</v>
-      </c>
-      <c r="K28">
-        <f>AVERAGE(K2:K24)</f>
-        <v>0.78075085101120067</v>
-      </c>
-      <c r="L28">
-        <f>AVERAGE(L2:L24)</f>
-        <v>0.74584752692249434</v>
-      </c>
-      <c r="M28">
-        <f>AVERAGE(M2:M24)</f>
-        <v>0.75997423201537584</v>
-      </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -1506,6 +1502,22 @@
       </c>
       <c r="H29">
         <v>4.265625</v>
+      </c>
+      <c r="J29">
+        <f>AVERAGE(J2:J25)</f>
+        <v>0.84324435763888872</v>
+      </c>
+      <c r="K29">
+        <f>AVERAGE(K2:K25)</f>
+        <v>0.78052255846430896</v>
+      </c>
+      <c r="L29">
+        <f>AVERAGE(L2:L25)</f>
+        <v>0.74597926425936478</v>
+      </c>
+      <c r="M29">
+        <f>AVERAGE(M2:M25)</f>
+        <v>0.7604461839436768</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">

--- a/ylSim/time_count/time.xlsx
+++ b/ylSim/time_count/time.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C81108AD-4D2F-4103-8244-A92C1AC7157E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0B9F8E2-2FE4-4A6F-BB1B-703544125BD5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="750" yWindow="750" windowWidth="17425" windowHeight="9499" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7418" yWindow="2747" windowWidth="17425" windowHeight="9499" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -436,8 +436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E18" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29:M29"/>
+    <sheetView tabSelected="1" topLeftCell="D28" workbookViewId="0">
+      <selection activeCell="J43" sqref="J43:M43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -1559,6 +1559,18 @@
       <c r="H31">
         <v>5.609375</v>
       </c>
+      <c r="J31">
+        <v>0.82071180555555501</v>
+      </c>
+      <c r="K31">
+        <v>0.76591639365536401</v>
+      </c>
+      <c r="L31">
+        <v>0.73913791274085305</v>
+      </c>
+      <c r="M31">
+        <v>0.76367453268350005</v>
+      </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -1579,8 +1591,20 @@
       <c r="H32">
         <v>4.15625</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J32">
+        <v>0.85200520833333304</v>
+      </c>
+      <c r="K32">
+        <v>0.80568321537531096</v>
+      </c>
+      <c r="L32">
+        <v>0.76236230477039302</v>
+      </c>
+      <c r="M32">
+        <v>0.77752503793182803</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -1599,8 +1623,20 @@
       <c r="H33">
         <v>4.6875</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J33">
+        <v>0.85355902777777704</v>
+      </c>
+      <c r="K33">
+        <v>0.767133483856829</v>
+      </c>
+      <c r="L33">
+        <v>0.75095502026568195</v>
+      </c>
+      <c r="M33">
+        <v>0.76089170957511898</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -1619,8 +1655,20 @@
       <c r="H34">
         <v>4.09375</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J34">
+        <v>0.85013020833333297</v>
+      </c>
+      <c r="K34">
+        <v>0.77587177681387198</v>
+      </c>
+      <c r="L34">
+        <v>0.73829300091248595</v>
+      </c>
+      <c r="M34">
+        <v>0.75356254253327504</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -1639,8 +1687,20 @@
       <c r="H35">
         <v>4.4375</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J35">
+        <v>0.85085937499999997</v>
+      </c>
+      <c r="K35">
+        <v>0.80457411614121099</v>
+      </c>
+      <c r="L35">
+        <v>0.77566610166793903</v>
+      </c>
+      <c r="M35">
+        <v>0.78562104749283501</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>0</v>
       </c>
@@ -1659,8 +1719,20 @@
       <c r="H36">
         <v>4.34375</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J36">
+        <v>0.86119791666666601</v>
+      </c>
+      <c r="K36">
+        <v>0.79830738807760804</v>
+      </c>
+      <c r="L36">
+        <v>0.75727608278159697</v>
+      </c>
+      <c r="M36">
+        <v>0.77642453076343698</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -1679,8 +1751,20 @@
       <c r="H37">
         <v>4.65625</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J37">
+        <v>0.85810763888888797</v>
+      </c>
+      <c r="K37">
+        <v>0.79192090997237996</v>
+      </c>
+      <c r="L37">
+        <v>0.75563498694932496</v>
+      </c>
+      <c r="M37">
+        <v>0.76820847694038497</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>0</v>
       </c>
@@ -1699,8 +1783,20 @@
       <c r="H38">
         <v>5.453125</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J38">
+        <v>0.84905381944444402</v>
+      </c>
+      <c r="K38">
+        <v>0.78453017570664596</v>
+      </c>
+      <c r="L38">
+        <v>0.749705603832442</v>
+      </c>
+      <c r="M38">
+        <v>0.76658250467697497</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>0</v>
       </c>
@@ -1719,8 +1815,20 @@
       <c r="H39">
         <v>5.328125</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J39">
+        <v>0.86186631944444403</v>
+      </c>
+      <c r="K39">
+        <v>0.78772346679056204</v>
+      </c>
+      <c r="L39">
+        <v>0.76278568245480005</v>
+      </c>
+      <c r="M39">
+        <v>0.76201598981416396</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>0</v>
       </c>
@@ -1739,8 +1847,20 @@
       <c r="H40">
         <v>4.8125</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J40">
+        <v>0.86159722222222201</v>
+      </c>
+      <c r="K40">
+        <v>0.79658495150682596</v>
+      </c>
+      <c r="L40">
+        <v>0.74305887127578296</v>
+      </c>
+      <c r="M40">
+        <v>0.77197986480497705</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>0</v>
       </c>
@@ -1760,7 +1880,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>0</v>
       </c>
@@ -1780,7 +1900,7 @@
         <v>4.171875</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>0</v>
       </c>
@@ -1799,8 +1919,24 @@
       <c r="H43">
         <v>4.0625</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J43">
+        <f>AVERAGE(J31:J40)</f>
+        <v>0.85190885416666617</v>
+      </c>
+      <c r="K43">
+        <f>AVERAGE(K31:K40)</f>
+        <v>0.7878245877896608</v>
+      </c>
+      <c r="L43">
+        <f>AVERAGE(L31:L40)</f>
+        <v>0.75348755676513002</v>
+      </c>
+      <c r="M43">
+        <f>AVERAGE(M31:M40)</f>
+        <v>0.76864862372164955</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>0</v>
       </c>
@@ -1820,7 +1956,7 @@
         <v>4.765625</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>0</v>
       </c>
@@ -1840,7 +1976,7 @@
         <v>4.21875</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>0</v>
       </c>
@@ -1860,7 +1996,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>0</v>
       </c>
@@ -1880,7 +2016,7 @@
         <v>5.703125</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>0</v>
       </c>

--- a/ylSim/time_count/time.xlsx
+++ b/ylSim/time_count/time.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0B9F8E2-2FE4-4A6F-BB1B-703544125BD5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42CEF628-B267-4F15-9F9C-CC7B39568A3F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7418" yWindow="2747" windowWidth="17425" windowHeight="9499" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="13287" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,12 +15,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="21">
   <si>
     <t>CTG Time</t>
   </si>
@@ -97,6 +102,10 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_lstm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -434,15 +443,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W1048576"/>
+  <dimension ref="A1:AB1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D28" workbookViewId="0">
-      <selection activeCell="J43" sqref="J43:M43"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="V18" sqref="V18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -512,8 +521,23 @@
       <c r="W1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -571,8 +595,20 @@
       <c r="W2">
         <v>0.70729754038082204</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y2">
+        <v>0.870034722222222</v>
+      </c>
+      <c r="Z2">
+        <v>0.81619778505807905</v>
+      </c>
+      <c r="AA2">
+        <v>0.771431078113063</v>
+      </c>
+      <c r="AB2">
+        <v>0.77515837768910201</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -630,8 +666,20 @@
       <c r="W3">
         <v>0.68452640957177002</v>
       </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y3">
+        <v>0.87543650793650796</v>
+      </c>
+      <c r="Z3">
+        <v>0.80512705082032798</v>
+      </c>
+      <c r="AA3">
+        <v>0.75689998726763397</v>
+      </c>
+      <c r="AB3">
+        <v>0.79281135054499297</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -689,8 +737,20 @@
       <c r="W4">
         <v>0.70853086597442405</v>
       </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y4">
+        <v>0.86885416666666604</v>
+      </c>
+      <c r="Z4">
+        <v>0.81581566105463099</v>
+      </c>
+      <c r="AA4">
+        <v>0.75417593742042199</v>
+      </c>
+      <c r="AB4">
+        <v>0.77258068125464197</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -748,8 +808,20 @@
       <c r="W5">
         <v>0.71103812623114304</v>
       </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y5">
+        <v>0.84910590277777698</v>
+      </c>
+      <c r="Z5">
+        <v>0.78873941009970405</v>
+      </c>
+      <c r="AA5">
+        <v>0.76642272249808996</v>
+      </c>
+      <c r="AB5">
+        <v>0.77337909120606296</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -780,8 +852,20 @@
       <c r="M6">
         <v>0.75356254253327504</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y6">
+        <v>0.85406249999999995</v>
+      </c>
+      <c r="Z6">
+        <v>0.78985126087148105</v>
+      </c>
+      <c r="AA6">
+        <v>0.73800782244716001</v>
+      </c>
+      <c r="AB6">
+        <v>0.75613930689521003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -812,8 +896,20 @@
       <c r="M7">
         <v>0.78562104749283501</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y7">
+        <v>0.86552083333333296</v>
+      </c>
+      <c r="Z7">
+        <v>0.80359161518628397</v>
+      </c>
+      <c r="AA7">
+        <v>0.77364089954163395</v>
+      </c>
+      <c r="AB7">
+        <v>0.78398320833077795</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -847,8 +943,20 @@
       <c r="W8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y8">
+        <v>0.86133680555555503</v>
+      </c>
+      <c r="Z8">
+        <v>0.78952436044347796</v>
+      </c>
+      <c r="AA8">
+        <v>0.74974492827434003</v>
+      </c>
+      <c r="AB8">
+        <v>0.77671659763511502</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -911,8 +1019,20 @@
         <f>AVERAGE(W2:W5)</f>
         <v>0.70284823553953979</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y9">
+        <v>0.84425347222222202</v>
+      </c>
+      <c r="Z9">
+        <v>0.80809059965769503</v>
+      </c>
+      <c r="AA9">
+        <v>0.75392164820473595</v>
+      </c>
+      <c r="AB9">
+        <v>0.76457786422751095</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -943,8 +1063,20 @@
       <c r="M10">
         <v>0.74705968050960103</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y10">
+        <v>0.84260416666666604</v>
+      </c>
+      <c r="Z10">
+        <v>0.76934141226420605</v>
+      </c>
+      <c r="AA10">
+        <v>0.74937448274764396</v>
+      </c>
+      <c r="AB10">
+        <v>0.74242569083869903</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -975,8 +1107,20 @@
       <c r="M11">
         <v>0.74901871162226397</v>
       </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y11">
+        <v>0.83934027777777698</v>
+      </c>
+      <c r="Z11">
+        <v>0.78687830245734602</v>
+      </c>
+      <c r="AA11">
+        <v>0.749799558080808</v>
+      </c>
+      <c r="AB11">
+        <v>0.76198631909534398</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -1007,8 +1151,20 @@
       <c r="M12">
         <v>0.76396680529079397</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y12">
+        <v>0.87164930555555498</v>
+      </c>
+      <c r="Z12">
+        <v>0.80625021271620501</v>
+      </c>
+      <c r="AA12">
+        <v>0.76047264928698699</v>
+      </c>
+      <c r="AB12">
+        <v>0.77890753169060001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -1039,8 +1195,20 @@
       <c r="M13">
         <v>0.76820847694038497</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y13">
+        <v>0.858116319444444</v>
+      </c>
+      <c r="Z13">
+        <v>0.79647887804597295</v>
+      </c>
+      <c r="AA13">
+        <v>0.74531166443850205</v>
+      </c>
+      <c r="AB13">
+        <v>0.76650042701752497</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -1071,8 +1239,20 @@
       <c r="M14">
         <v>0.76612506589014295</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y14">
+        <v>0.84238715277777698</v>
+      </c>
+      <c r="Z14">
+        <v>0.77910349301433801</v>
+      </c>
+      <c r="AA14">
+        <v>0.76008184523809497</v>
+      </c>
+      <c r="AB14">
+        <v>0.76355946871524005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -1103,8 +1283,20 @@
       <c r="M15">
         <v>0.76658250467697497</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y15">
+        <v>0.84347222222222196</v>
+      </c>
+      <c r="Z15">
+        <v>0.79794307714344404</v>
+      </c>
+      <c r="AA15">
+        <v>0.76923920136236301</v>
+      </c>
+      <c r="AB15">
+        <v>0.77959256336434002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -1135,8 +1327,20 @@
       <c r="M16">
         <v>0.75958888111246603</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Y16">
+        <v>0.85718749999999899</v>
+      </c>
+      <c r="Z16">
+        <v>0.79235821317163202</v>
+      </c>
+      <c r="AA16">
+        <v>0.76847255379424395</v>
+      </c>
+      <c r="AB16">
+        <v>0.764995799023235</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -1167,8 +1371,20 @@
       <c r="M17">
         <v>0.75689778131441898</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Y17">
+        <v>0.86156250000000001</v>
+      </c>
+      <c r="Z17">
+        <v>0.80198090818495205</v>
+      </c>
+      <c r="AA17">
+        <v>0.76555922937356702</v>
+      </c>
+      <c r="AB17">
+        <v>0.77847190427524504</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -1199,8 +1415,20 @@
       <c r="M18">
         <v>0.76644888954594204</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Y18">
+        <v>0.83480034722222196</v>
+      </c>
+      <c r="Z18">
+        <v>0.76437980524377502</v>
+      </c>
+      <c r="AA18">
+        <v>0.73829123694932497</v>
+      </c>
+      <c r="AB18">
+        <v>0.75468914033496104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -1231,8 +1459,20 @@
       <c r="M19">
         <v>0.76201598981416396</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Y19">
+        <v>0.85342881944444404</v>
+      </c>
+      <c r="Z19">
+        <v>0.78961905741317495</v>
+      </c>
+      <c r="AA19">
+        <v>0.74375656512605004</v>
+      </c>
+      <c r="AB19">
+        <v>0.764381951813355</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -1263,8 +1503,20 @@
       <c r="M20">
         <v>0.77197986480497705</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Y20">
+        <v>0.858315972222222</v>
+      </c>
+      <c r="Z20">
+        <v>0.80628200384174598</v>
+      </c>
+      <c r="AA20">
+        <v>0.77894122421695899</v>
+      </c>
+      <c r="AB20">
+        <v>0.78678531133811702</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -1295,8 +1547,20 @@
       <c r="M21">
         <v>0.747065915564183</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Y21">
+        <v>0.83755208333333298</v>
+      </c>
+      <c r="Z21">
+        <v>0.77536815206851895</v>
+      </c>
+      <c r="AA21">
+        <v>0.74465316240132395</v>
+      </c>
+      <c r="AB21">
+        <v>0.75799439076908404</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -1327,8 +1591,20 @@
       <c r="M22">
         <v>0.741964561826989</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Y22">
+        <v>0.87064236111111104</v>
+      </c>
+      <c r="Z22">
+        <v>0.81737662613122097</v>
+      </c>
+      <c r="AA22">
+        <v>0.78934218763262798</v>
+      </c>
+      <c r="AB22">
+        <v>0.79301121681623898</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -1359,8 +1635,20 @@
       <c r="M23">
         <v>0.75263709139360502</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Y23">
+        <v>0.85040798611111101</v>
+      </c>
+      <c r="Z23">
+        <v>0.78032480540293003</v>
+      </c>
+      <c r="AA23">
+        <v>0.72992643079959196</v>
+      </c>
+      <c r="AB23">
+        <v>0.76562344622096001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -1391,8 +1679,20 @@
       <c r="M24">
         <v>0.74365397092283203</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Y24">
+        <v>0.85706597222222203</v>
+      </c>
+      <c r="Z24">
+        <v>0.791449772653816</v>
+      </c>
+      <c r="AA24">
+        <v>0.76503023936847403</v>
+      </c>
+      <c r="AB24">
+        <v>0.77404351979136399</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -1423,8 +1723,20 @@
       <c r="M25">
         <v>0.77130107829459804</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Y25">
+        <v>0.86032986111111098</v>
+      </c>
+      <c r="Z25">
+        <v>0.76434047723110199</v>
+      </c>
+      <c r="AA25">
+        <v>0.73425115121806295</v>
+      </c>
+      <c r="AB25">
+        <v>0.77158032748552297</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -1443,8 +1755,20 @@
       <c r="H26">
         <v>6.46875</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Y26">
+        <v>0.85196180555555501</v>
+      </c>
+      <c r="Z26">
+        <v>0.77093674554612002</v>
+      </c>
+      <c r="AA26">
+        <v>0.73175137668703805</v>
+      </c>
+      <c r="AB26">
+        <v>0.75385748450839196</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -1463,8 +1787,20 @@
       <c r="H27">
         <v>6.328125</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Y27">
+        <v>0.87542534722222198</v>
+      </c>
+      <c r="Z27">
+        <v>0.81782387343049101</v>
+      </c>
+      <c r="AA27">
+        <v>0.77554530334861205</v>
+      </c>
+      <c r="AB27">
+        <v>0.79290827888923099</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -1484,7 +1820,7 @@
         <v>5.625</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -1519,8 +1855,24 @@
         <f>AVERAGE(M2:M25)</f>
         <v>0.7604461839436768</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Y29">
+        <f>AVERAGE(Y2:Y27)</f>
+        <v>0.8559559581043954</v>
+      </c>
+      <c r="Z29">
+        <f>AVERAGE(Z2:Z27)</f>
+        <v>0.79327590612125654</v>
+      </c>
+      <c r="AA29">
+        <f>AVERAGE(AA2:AA27)</f>
+        <v>0.75630942637835985</v>
+      </c>
+      <c r="AB29">
+        <f>AVERAGE(AB2:AB27)</f>
+        <v>0.77102543268349477</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -1540,7 +1892,7 @@
         <v>4.625</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -1559,20 +1911,8 @@
       <c r="H31">
         <v>5.609375</v>
       </c>
-      <c r="J31">
-        <v>0.82071180555555501</v>
-      </c>
-      <c r="K31">
-        <v>0.76591639365536401</v>
-      </c>
-      <c r="L31">
-        <v>0.73913791274085305</v>
-      </c>
-      <c r="M31">
-        <v>0.76367453268350005</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -1591,20 +1931,8 @@
       <c r="H32">
         <v>4.15625</v>
       </c>
-      <c r="J32">
-        <v>0.85200520833333304</v>
-      </c>
-      <c r="K32">
-        <v>0.80568321537531096</v>
-      </c>
-      <c r="L32">
-        <v>0.76236230477039302</v>
-      </c>
-      <c r="M32">
-        <v>0.77752503793182803</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -1623,20 +1951,8 @@
       <c r="H33">
         <v>4.6875</v>
       </c>
-      <c r="J33">
-        <v>0.85355902777777704</v>
-      </c>
-      <c r="K33">
-        <v>0.767133483856829</v>
-      </c>
-      <c r="L33">
-        <v>0.75095502026568195</v>
-      </c>
-      <c r="M33">
-        <v>0.76089170957511898</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -1655,20 +1971,8 @@
       <c r="H34">
         <v>4.09375</v>
       </c>
-      <c r="J34">
-        <v>0.85013020833333297</v>
-      </c>
-      <c r="K34">
-        <v>0.77587177681387198</v>
-      </c>
-      <c r="L34">
-        <v>0.73829300091248595</v>
-      </c>
-      <c r="M34">
-        <v>0.75356254253327504</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -1687,20 +1991,8 @@
       <c r="H35">
         <v>4.4375</v>
       </c>
-      <c r="J35">
-        <v>0.85085937499999997</v>
-      </c>
-      <c r="K35">
-        <v>0.80457411614121099</v>
-      </c>
-      <c r="L35">
-        <v>0.77566610166793903</v>
-      </c>
-      <c r="M35">
-        <v>0.78562104749283501</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>0</v>
       </c>
@@ -1719,20 +2011,8 @@
       <c r="H36">
         <v>4.34375</v>
       </c>
-      <c r="J36">
-        <v>0.86119791666666601</v>
-      </c>
-      <c r="K36">
-        <v>0.79830738807760804</v>
-      </c>
-      <c r="L36">
-        <v>0.75727608278159697</v>
-      </c>
-      <c r="M36">
-        <v>0.77642453076343698</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -1751,20 +2031,8 @@
       <c r="H37">
         <v>4.65625</v>
       </c>
-      <c r="J37">
-        <v>0.85810763888888797</v>
-      </c>
-      <c r="K37">
-        <v>0.79192090997237996</v>
-      </c>
-      <c r="L37">
-        <v>0.75563498694932496</v>
-      </c>
-      <c r="M37">
-        <v>0.76820847694038497</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>0</v>
       </c>
@@ -1783,20 +2051,8 @@
       <c r="H38">
         <v>5.453125</v>
       </c>
-      <c r="J38">
-        <v>0.84905381944444402</v>
-      </c>
-      <c r="K38">
-        <v>0.78453017570664596</v>
-      </c>
-      <c r="L38">
-        <v>0.749705603832442</v>
-      </c>
-      <c r="M38">
-        <v>0.76658250467697497</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>0</v>
       </c>
@@ -1815,20 +2071,8 @@
       <c r="H39">
         <v>5.328125</v>
       </c>
-      <c r="J39">
-        <v>0.86186631944444403</v>
-      </c>
-      <c r="K39">
-        <v>0.78772346679056204</v>
-      </c>
-      <c r="L39">
-        <v>0.76278568245480005</v>
-      </c>
-      <c r="M39">
-        <v>0.76201598981416396</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>0</v>
       </c>
@@ -1847,20 +2091,8 @@
       <c r="H40">
         <v>4.8125</v>
       </c>
-      <c r="J40">
-        <v>0.86159722222222201</v>
-      </c>
-      <c r="K40">
-        <v>0.79658495150682596</v>
-      </c>
-      <c r="L40">
-        <v>0.74305887127578296</v>
-      </c>
-      <c r="M40">
-        <v>0.77197986480497705</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>0</v>
       </c>
@@ -1880,7 +2112,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>0</v>
       </c>
@@ -1900,7 +2132,7 @@
         <v>4.171875</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>0</v>
       </c>
@@ -1919,24 +2151,8 @@
       <c r="H43">
         <v>4.0625</v>
       </c>
-      <c r="J43">
-        <f>AVERAGE(J31:J40)</f>
-        <v>0.85190885416666617</v>
-      </c>
-      <c r="K43">
-        <f>AVERAGE(K31:K40)</f>
-        <v>0.7878245877896608</v>
-      </c>
-      <c r="L43">
-        <f>AVERAGE(L31:L40)</f>
-        <v>0.75348755676513002</v>
-      </c>
-      <c r="M43">
-        <f>AVERAGE(M31:M40)</f>
-        <v>0.76864862372164955</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>0</v>
       </c>
@@ -1956,7 +2172,7 @@
         <v>4.765625</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>0</v>
       </c>
@@ -1976,7 +2192,7 @@
         <v>4.21875</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>0</v>
       </c>
@@ -1996,7 +2212,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>0</v>
       </c>
@@ -2016,7 +2232,7 @@
         <v>5.703125</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>0</v>
       </c>

--- a/ylSim/time_count/time.xlsx
+++ b/ylSim/time_count/time.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42CEF628-B267-4F15-9F9C-CC7B39568A3F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDE8C1CB-192B-4075-BF49-A1C5B8D39DF5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="13287" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1234" yWindow="2033" windowWidth="17425" windowHeight="9499" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -445,8 +445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="V18" sqref="V18"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -1755,6 +1755,18 @@
       <c r="H26">
         <v>6.46875</v>
       </c>
+      <c r="J26">
+        <v>0.85064236111111102</v>
+      </c>
+      <c r="K26">
+        <v>0.78406645284862098</v>
+      </c>
+      <c r="L26">
+        <v>0.73429408316356803</v>
+      </c>
+      <c r="M26">
+        <v>0.77274250295302604</v>
+      </c>
       <c r="Y26">
         <v>0.85196180555555501</v>
       </c>
@@ -1787,6 +1799,18 @@
       <c r="H27">
         <v>6.328125</v>
       </c>
+      <c r="J27">
+        <v>0.82096354166666596</v>
+      </c>
+      <c r="K27">
+        <v>0.755647451506826</v>
+      </c>
+      <c r="L27">
+        <v>0.73502834277650397</v>
+      </c>
+      <c r="M27">
+        <v>0.74743309983502204</v>
+      </c>
       <c r="Y27">
         <v>0.87542534722222198</v>
       </c>
@@ -1819,6 +1843,18 @@
       <c r="H28">
         <v>5.625</v>
       </c>
+      <c r="J28">
+        <v>0.83179687499999999</v>
+      </c>
+      <c r="K28">
+        <v>0.76988593973428499</v>
+      </c>
+      <c r="L28">
+        <v>0.72614575375604695</v>
+      </c>
+      <c r="M28">
+        <v>0.767242914376844</v>
+      </c>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -1838,22 +1874,6 @@
       </c>
       <c r="H29">
         <v>4.265625</v>
-      </c>
-      <c r="J29">
-        <f>AVERAGE(J2:J25)</f>
-        <v>0.84324435763888872</v>
-      </c>
-      <c r="K29">
-        <f>AVERAGE(K2:K25)</f>
-        <v>0.78052255846430896</v>
-      </c>
-      <c r="L29">
-        <f>AVERAGE(L2:L25)</f>
-        <v>0.74597926425936478</v>
-      </c>
-      <c r="M29">
-        <f>AVERAGE(M2:M25)</f>
-        <v>0.7604461839436768</v>
       </c>
       <c r="Y29">
         <f>AVERAGE(Y2:Y27)</f>

--- a/ylSim/time_count/time.xlsx
+++ b/ylSim/time_count/time.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDE8C1CB-192B-4075-BF49-A1C5B8D39DF5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8858ED1-2633-42B5-A0EA-0A5BB20D7EA6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1234" yWindow="2033" windowWidth="17425" windowHeight="9499" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="13287" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -446,7 +446,7 @@
   <dimension ref="A1:AB1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="S5" sqref="S5"/>
+      <selection activeCell="U29" sqref="U29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -1855,6 +1855,18 @@
       <c r="M28">
         <v>0.767242914376844</v>
       </c>
+      <c r="Y28">
+        <v>0.855303819444444</v>
+      </c>
+      <c r="Z28">
+        <v>0.79750358862950699</v>
+      </c>
+      <c r="AA28">
+        <v>0.77463557582123699</v>
+      </c>
+      <c r="AB28">
+        <v>0.78225716377987597</v>
+      </c>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -1875,22 +1887,6 @@
       <c r="H29">
         <v>4.265625</v>
       </c>
-      <c r="Y29">
-        <f>AVERAGE(Y2:Y27)</f>
-        <v>0.8559559581043954</v>
-      </c>
-      <c r="Z29">
-        <f>AVERAGE(Z2:Z27)</f>
-        <v>0.79327590612125654</v>
-      </c>
-      <c r="AA29">
-        <f>AVERAGE(AA2:AA27)</f>
-        <v>0.75630942637835985</v>
-      </c>
-      <c r="AB29">
-        <f>AVERAGE(AB2:AB27)</f>
-        <v>0.77102543268349477</v>
-      </c>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -1950,6 +1946,38 @@
       </c>
       <c r="H32">
         <v>4.15625</v>
+      </c>
+      <c r="J32">
+        <f>AVERAGE(J2:J28)</f>
+        <v>0.84226916152263342</v>
+      </c>
+      <c r="K32">
+        <f>AVERAGE(K2:K28)</f>
+        <v>0.77933856471233864</v>
+      </c>
+      <c r="L32">
+        <f>AVERAGE(L2:L28)</f>
+        <v>0.74440631562669912</v>
+      </c>
+      <c r="M32">
+        <f>AVERAGE(M2:M28)</f>
+        <v>0.76067136784493095</v>
+      </c>
+      <c r="Y32">
+        <f>AVERAGE(Y2:Y28)</f>
+        <v>0.85593180482069342</v>
+      </c>
+      <c r="Z32">
+        <f>AVERAGE(Z2:Z28)</f>
+        <v>0.79343248695489543</v>
+      </c>
+      <c r="AA32">
+        <f>AVERAGE(AA2:AA28)</f>
+        <v>0.75698817265402185</v>
+      </c>
+      <c r="AB32">
+        <f>AVERAGE(AB2:AB28)</f>
+        <v>0.77144142272410143</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">

--- a/ylSim/time_count/time.xlsx
+++ b/ylSim/time_count/time.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8858ED1-2633-42B5-A0EA-0A5BB20D7EA6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{553D1475-0E60-4DF9-BABC-0A2A308587FC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="13287" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -445,8 +445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="U29" sqref="U29"/>
+    <sheetView tabSelected="1" topLeftCell="F4" workbookViewId="0">
+      <selection activeCell="AB29" sqref="AB29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -1887,6 +1887,18 @@
       <c r="H29">
         <v>4.265625</v>
       </c>
+      <c r="Y29">
+        <v>0.86838541666666602</v>
+      </c>
+      <c r="Z29">
+        <v>0.80085248544347798</v>
+      </c>
+      <c r="AA29">
+        <v>0.74551219919786005</v>
+      </c>
+      <c r="AB29">
+        <v>0.78217455106985301</v>
+      </c>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -1962,22 +1974,6 @@
       <c r="M32">
         <f>AVERAGE(M2:M28)</f>
         <v>0.76067136784493095</v>
-      </c>
-      <c r="Y32">
-        <f>AVERAGE(Y2:Y28)</f>
-        <v>0.85593180482069342</v>
-      </c>
-      <c r="Z32">
-        <f>AVERAGE(Z2:Z28)</f>
-        <v>0.79343248695489543</v>
-      </c>
-      <c r="AA32">
-        <f>AVERAGE(AA2:AA28)</f>
-        <v>0.75698817265402185</v>
-      </c>
-      <c r="AB32">
-        <f>AVERAGE(AB2:AB28)</f>
-        <v>0.77144142272410143</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">

--- a/ylSim/time_count/time.xlsx
+++ b/ylSim/time_count/time.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{553D1475-0E60-4DF9-BABC-0A2A308587FC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14EDAD1E-99F7-41E5-9AD2-F5A7A495DE59}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="13287" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23343" yWindow="-109" windowWidth="23452" windowHeight="13287" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="21">
   <si>
     <t>CTG Time</t>
   </si>
@@ -38,10 +38,6 @@
   </si>
   <si>
     <t>CPU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LSTM_metrics</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -106,6 +102,10 @@
   </si>
   <si>
     <t>t_lstm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LSTM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -445,8 +445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F4" workbookViewId="0">
-      <selection activeCell="AB29" sqref="AB29"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="W17" sqref="W17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -464,77 +464,65 @@
       <c r="D1">
         <v>464</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="F1">
+      <c r="H1">
         <v>0.65625</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>3</v>
       </c>
-      <c r="H1">
+      <c r="J1">
         <v>6.578125</v>
       </c>
-      <c r="I1" t="s">
+      <c r="N1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" t="s">
+        <v>9</v>
+      </c>
+      <c r="U1" t="s">
+        <v>10</v>
+      </c>
+      <c r="V1" t="s">
+        <v>11</v>
+      </c>
+      <c r="W1" t="s">
+        <v>12</v>
+      </c>
+      <c r="X1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y1" t="s">
         <v>4</v>
       </c>
-      <c r="J1" t="s">
+      <c r="Z1" t="s">
         <v>5</v>
       </c>
-      <c r="K1" t="s">
+      <c r="AA1" t="s">
         <v>6</v>
       </c>
-      <c r="L1" t="s">
+      <c r="AB1" t="s">
         <v>7</v>
-      </c>
-      <c r="M1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" t="s">
-        <v>10</v>
-      </c>
-      <c r="P1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1" t="s">
-        <v>13</v>
-      </c>
-      <c r="S1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" t="s">
-        <v>10</v>
-      </c>
-      <c r="U1" t="s">
-        <v>11</v>
-      </c>
-      <c r="V1" t="s">
-        <v>12</v>
-      </c>
-      <c r="W1" t="s">
-        <v>13</v>
-      </c>
-      <c r="X1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
@@ -550,26 +538,14 @@
       <c r="D2">
         <v>443</v>
       </c>
-      <c r="F2">
+      <c r="H2">
         <v>0.53125</v>
       </c>
-      <c r="H2">
+      <c r="J2">
         <v>4.921875</v>
       </c>
-      <c r="J2">
-        <v>0.81626736111111098</v>
-      </c>
-      <c r="K2">
-        <v>0.76467162280121803</v>
-      </c>
-      <c r="L2">
-        <v>0.72823311900517695</v>
-      </c>
-      <c r="M2">
-        <v>0.75183408431522902</v>
-      </c>
       <c r="N2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O2">
         <v>0.85396825396825404</v>
@@ -621,26 +597,14 @@
       <c r="D3">
         <v>369</v>
       </c>
-      <c r="F3">
+      <c r="H3">
         <v>0.53125</v>
       </c>
-      <c r="H3">
+      <c r="J3">
         <v>5.375</v>
       </c>
-      <c r="J3">
-        <v>0.82071180555555501</v>
-      </c>
-      <c r="K3">
-        <v>0.76591639365536401</v>
-      </c>
-      <c r="L3">
-        <v>0.73913791274085305</v>
-      </c>
-      <c r="M3">
-        <v>0.76367453268350005</v>
-      </c>
       <c r="N3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O3">
         <v>0.83333333333333304</v>
@@ -692,26 +656,14 @@
       <c r="D4">
         <v>387</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <v>0.671875</v>
       </c>
-      <c r="H4" s="2">
+      <c r="J4" s="2">
         <v>6.09375</v>
       </c>
-      <c r="J4">
-        <v>0.85200520833333304</v>
-      </c>
-      <c r="K4">
-        <v>0.80568321537531096</v>
-      </c>
-      <c r="L4">
-        <v>0.76236230477039302</v>
-      </c>
-      <c r="M4">
-        <v>0.77752503793182803</v>
-      </c>
       <c r="N4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O4">
         <v>0.79920634920634903</v>
@@ -763,26 +715,14 @@
       <c r="D5">
         <v>387</v>
       </c>
-      <c r="F5">
+      <c r="H5">
         <v>0.546875</v>
       </c>
-      <c r="H5">
+      <c r="J5">
         <v>5.625</v>
       </c>
-      <c r="J5">
-        <v>0.85355902777777704</v>
-      </c>
-      <c r="K5">
-        <v>0.767133483856829</v>
-      </c>
-      <c r="L5">
-        <v>0.75095502026568195</v>
-      </c>
-      <c r="M5">
-        <v>0.76089170957511898</v>
-      </c>
       <c r="N5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O5">
         <v>0.79603174603174598</v>
@@ -834,23 +774,11 @@
       <c r="D6">
         <v>361</v>
       </c>
-      <c r="F6">
+      <c r="H6">
         <v>0.640625</v>
       </c>
-      <c r="H6">
+      <c r="J6">
         <v>5.875</v>
-      </c>
-      <c r="J6">
-        <v>0.85013020833333297</v>
-      </c>
-      <c r="K6">
-        <v>0.77587177681387198</v>
-      </c>
-      <c r="L6">
-        <v>0.73829300091248595</v>
-      </c>
-      <c r="M6">
-        <v>0.75356254253327504</v>
       </c>
       <c r="Y6">
         <v>0.85406249999999995</v>
@@ -878,23 +806,11 @@
       <c r="D7">
         <v>400</v>
       </c>
-      <c r="F7">
+      <c r="H7">
         <v>0.5625</v>
       </c>
-      <c r="H7">
+      <c r="J7">
         <v>4.28125</v>
-      </c>
-      <c r="J7">
-        <v>0.85085937499999997</v>
-      </c>
-      <c r="K7">
-        <v>0.80457411614121099</v>
-      </c>
-      <c r="L7">
-        <v>0.77566610166793903</v>
-      </c>
-      <c r="M7">
-        <v>0.78562104749283501</v>
       </c>
       <c r="Y7">
         <v>0.86552083333333296</v>
@@ -922,26 +838,14 @@
       <c r="D8">
         <v>380</v>
       </c>
-      <c r="F8">
+      <c r="H8">
         <v>0.59375</v>
       </c>
-      <c r="H8">
+      <c r="J8">
         <v>4.625</v>
       </c>
-      <c r="J8">
-        <v>0.86119791666666601</v>
-      </c>
-      <c r="K8">
-        <v>0.79830738807760804</v>
-      </c>
-      <c r="L8">
-        <v>0.75727608278159697</v>
-      </c>
-      <c r="M8">
-        <v>0.77642453076343698</v>
-      </c>
       <c r="W8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Y8">
         <v>0.86133680555555503</v>
@@ -969,23 +873,11 @@
       <c r="D9">
         <v>381</v>
       </c>
-      <c r="F9">
+      <c r="H9">
         <v>0.578125</v>
       </c>
-      <c r="H9">
+      <c r="J9">
         <v>4.84375</v>
-      </c>
-      <c r="J9">
-        <v>0.83114583333333303</v>
-      </c>
-      <c r="K9">
-        <v>0.775908667007012</v>
-      </c>
-      <c r="L9">
-        <v>0.76339066876750705</v>
-      </c>
-      <c r="M9">
-        <v>0.74665965982867699</v>
       </c>
       <c r="O9">
         <f>AVERAGE(O2:O5)</f>
@@ -1045,23 +937,11 @@
       <c r="D10">
         <v>410</v>
       </c>
-      <c r="F10">
+      <c r="H10">
         <v>0.53125</v>
       </c>
-      <c r="H10">
+      <c r="J10">
         <v>4.5625</v>
-      </c>
-      <c r="J10">
-        <v>0.82658854166666595</v>
-      </c>
-      <c r="K10">
-        <v>0.77728429658576703</v>
-      </c>
-      <c r="L10">
-        <v>0.74347224874798301</v>
-      </c>
-      <c r="M10">
-        <v>0.74705968050960103</v>
       </c>
       <c r="Y10">
         <v>0.84260416666666604</v>
@@ -1089,23 +969,11 @@
       <c r="D11" s="1">
         <v>420</v>
       </c>
-      <c r="F11">
+      <c r="H11">
         <v>0.546875</v>
       </c>
-      <c r="H11">
+      <c r="J11">
         <v>6.296875</v>
-      </c>
-      <c r="J11">
-        <v>0.830972222222222</v>
-      </c>
-      <c r="K11">
-        <v>0.77054642508227</v>
-      </c>
-      <c r="L11">
-        <v>0.73362064712248498</v>
-      </c>
-      <c r="M11">
-        <v>0.74901871162226397</v>
       </c>
       <c r="Y11">
         <v>0.83934027777777698</v>
@@ -1133,23 +1001,11 @@
       <c r="D12">
         <v>399</v>
       </c>
-      <c r="F12">
+      <c r="H12">
         <v>0.734375</v>
       </c>
-      <c r="H12">
+      <c r="J12">
         <v>5.125</v>
-      </c>
-      <c r="J12">
-        <v>0.81487847222222198</v>
-      </c>
-      <c r="K12">
-        <v>0.78248061068833097</v>
-      </c>
-      <c r="L12">
-        <v>0.75175070028011104</v>
-      </c>
-      <c r="M12">
-        <v>0.76396680529079397</v>
       </c>
       <c r="Y12">
         <v>0.87164930555555498</v>
@@ -1177,23 +1033,11 @@
       <c r="D13">
         <v>409</v>
       </c>
-      <c r="F13">
+      <c r="H13">
         <v>0.71875</v>
       </c>
-      <c r="H13">
+      <c r="J13">
         <v>4.5</v>
-      </c>
-      <c r="J13">
-        <v>0.85810763888888797</v>
-      </c>
-      <c r="K13">
-        <v>0.79192090997237996</v>
-      </c>
-      <c r="L13">
-        <v>0.75563498694932496</v>
-      </c>
-      <c r="M13">
-        <v>0.76820847694038497</v>
       </c>
       <c r="Y13">
         <v>0.858116319444444</v>
@@ -1221,23 +1065,11 @@
       <c r="D14">
         <v>394</v>
       </c>
-      <c r="F14">
+      <c r="H14">
         <v>0.828125</v>
       </c>
-      <c r="H14">
+      <c r="J14">
         <v>5.421875</v>
-      </c>
-      <c r="J14">
-        <v>0.84030381944444399</v>
-      </c>
-      <c r="K14">
-        <v>0.787638733815204</v>
-      </c>
-      <c r="L14">
-        <v>0.76792390819964296</v>
-      </c>
-      <c r="M14">
-        <v>0.76612506589014295</v>
       </c>
       <c r="Y14">
         <v>0.84238715277777698</v>
@@ -1265,23 +1097,11 @@
       <c r="D15">
         <v>382</v>
       </c>
-      <c r="F15">
+      <c r="H15">
         <v>0.609375</v>
       </c>
-      <c r="H15">
+      <c r="J15">
         <v>4.28125</v>
-      </c>
-      <c r="J15">
-        <v>0.84905381944444402</v>
-      </c>
-      <c r="K15">
-        <v>0.78453017570664596</v>
-      </c>
-      <c r="L15">
-        <v>0.749705603832442</v>
-      </c>
-      <c r="M15">
-        <v>0.76658250467697497</v>
       </c>
       <c r="Y15">
         <v>0.84347222222222196</v>
@@ -1309,23 +1129,11 @@
       <c r="D16">
         <v>368</v>
       </c>
-      <c r="F16">
+      <c r="H16">
         <v>0.5625</v>
       </c>
-      <c r="H16">
+      <c r="J16">
         <v>4.515625</v>
-      </c>
-      <c r="J16">
-        <v>0.84862847222222204</v>
-      </c>
-      <c r="K16">
-        <v>0.76944117616452101</v>
-      </c>
-      <c r="L16">
-        <v>0.74595592214158302</v>
-      </c>
-      <c r="M16">
-        <v>0.75958888111246603</v>
       </c>
       <c r="Y16">
         <v>0.85718749999999899</v>
@@ -1353,23 +1161,11 @@
       <c r="D17">
         <v>365</v>
       </c>
-      <c r="F17">
+      <c r="H17">
         <v>0.515625</v>
       </c>
-      <c r="H17">
+      <c r="J17">
         <v>5.796875</v>
-      </c>
-      <c r="J17">
-        <v>0.83633680555555501</v>
-      </c>
-      <c r="K17">
-        <v>0.77623180740827802</v>
-      </c>
-      <c r="L17">
-        <v>0.74445713702147498</v>
-      </c>
-      <c r="M17">
-        <v>0.75689778131441898</v>
       </c>
       <c r="Y17">
         <v>0.86156250000000001</v>
@@ -1397,23 +1193,11 @@
       <c r="D18">
         <v>367</v>
       </c>
-      <c r="F18">
+      <c r="H18">
         <v>0.59375</v>
       </c>
-      <c r="H18">
+      <c r="J18">
         <v>4.21875</v>
-      </c>
-      <c r="J18">
-        <v>0.829878472222222</v>
-      </c>
-      <c r="K18">
-        <v>0.76938370759142805</v>
-      </c>
-      <c r="L18">
-        <v>0.74751111429420203</v>
-      </c>
-      <c r="M18">
-        <v>0.76644888954594204</v>
       </c>
       <c r="Y18">
         <v>0.83480034722222196</v>
@@ -1441,23 +1225,11 @@
       <c r="D19">
         <v>391</v>
       </c>
-      <c r="F19">
+      <c r="H19">
         <v>0.515625</v>
       </c>
-      <c r="H19">
+      <c r="J19">
         <v>4.46875</v>
-      </c>
-      <c r="J19">
-        <v>0.86186631944444403</v>
-      </c>
-      <c r="K19">
-        <v>0.78772346679056204</v>
-      </c>
-      <c r="L19">
-        <v>0.76278568245480005</v>
-      </c>
-      <c r="M19">
-        <v>0.76201598981416396</v>
       </c>
       <c r="Y19">
         <v>0.85342881944444404</v>
@@ -1485,23 +1257,11 @@
       <c r="D20">
         <v>415</v>
       </c>
-      <c r="F20">
+      <c r="H20">
         <v>0.53125</v>
       </c>
-      <c r="H20">
+      <c r="J20">
         <v>5.828125</v>
-      </c>
-      <c r="J20">
-        <v>0.86159722222222201</v>
-      </c>
-      <c r="K20">
-        <v>0.79658495150682596</v>
-      </c>
-      <c r="L20">
-        <v>0.74305887127578296</v>
-      </c>
-      <c r="M20">
-        <v>0.77197986480497705</v>
       </c>
       <c r="Y20">
         <v>0.858315972222222</v>
@@ -1529,23 +1289,11 @@
       <c r="D21">
         <v>479</v>
       </c>
-      <c r="F21">
+      <c r="H21">
         <v>0.5625</v>
       </c>
-      <c r="H21">
+      <c r="J21">
         <v>5.734375</v>
-      </c>
-      <c r="J21">
-        <v>0.85614583333333305</v>
-      </c>
-      <c r="K21">
-        <v>0.76681299705196704</v>
-      </c>
-      <c r="L21">
-        <v>0.72378569041252805</v>
-      </c>
-      <c r="M21">
-        <v>0.747065915564183</v>
       </c>
       <c r="Y21">
         <v>0.83755208333333298</v>
@@ -1573,23 +1321,11 @@
       <c r="D22">
         <v>396</v>
       </c>
-      <c r="F22">
+      <c r="H22">
         <v>0.546875</v>
       </c>
-      <c r="H22">
+      <c r="J22">
         <v>6.421875</v>
-      </c>
-      <c r="J22">
-        <v>0.83843749999999995</v>
-      </c>
-      <c r="K22">
-        <v>0.76784233230005206</v>
-      </c>
-      <c r="L22">
-        <v>0.72980805958747097</v>
-      </c>
-      <c r="M22">
-        <v>0.741964561826989</v>
       </c>
       <c r="Y22">
         <v>0.87064236111111104</v>
@@ -1617,23 +1353,11 @@
       <c r="D23">
         <v>426</v>
       </c>
-      <c r="F23">
+      <c r="H23">
         <v>0.5625</v>
       </c>
-      <c r="H23">
+      <c r="J23">
         <v>6.34375</v>
-      </c>
-      <c r="J23">
-        <v>0.84534722222222203</v>
-      </c>
-      <c r="K23">
-        <v>0.78664387542604397</v>
-      </c>
-      <c r="L23">
-        <v>0.72421597805788895</v>
-      </c>
-      <c r="M23">
-        <v>0.75263709139360502</v>
       </c>
       <c r="Y23">
         <v>0.85040798611111101</v>
@@ -1661,23 +1385,11 @@
       <c r="D24">
         <v>387</v>
       </c>
-      <c r="F24">
+      <c r="H24">
         <v>0.546875</v>
       </c>
-      <c r="H24">
+      <c r="J24">
         <v>7.078125</v>
-      </c>
-      <c r="J24">
-        <v>0.85499131944444395</v>
-      </c>
-      <c r="K24">
-        <v>0.78413744343891401</v>
-      </c>
-      <c r="L24">
-        <v>0.71549235792801902</v>
-      </c>
-      <c r="M24">
-        <v>0.74365397092283203</v>
       </c>
       <c r="Y24">
         <v>0.85706597222222203</v>
@@ -1705,23 +1417,11 @@
       <c r="D25">
         <v>411</v>
       </c>
-      <c r="F25">
+      <c r="H25">
         <v>0.515625</v>
       </c>
-      <c r="H25">
+      <c r="J25">
         <v>8.71875</v>
-      </c>
-      <c r="J25">
-        <v>0.84885416666666602</v>
-      </c>
-      <c r="K25">
-        <v>0.77527182988580001</v>
-      </c>
-      <c r="L25">
-        <v>0.74900922300738404</v>
-      </c>
-      <c r="M25">
-        <v>0.77130107829459804</v>
       </c>
       <c r="Y25">
         <v>0.86032986111111098</v>
@@ -1749,23 +1449,11 @@
       <c r="D26">
         <v>441</v>
       </c>
-      <c r="F26">
+      <c r="H26">
         <v>0.5625</v>
       </c>
-      <c r="H26">
+      <c r="J26">
         <v>6.46875</v>
-      </c>
-      <c r="J26">
-        <v>0.85064236111111102</v>
-      </c>
-      <c r="K26">
-        <v>0.78406645284862098</v>
-      </c>
-      <c r="L26">
-        <v>0.73429408316356803</v>
-      </c>
-      <c r="M26">
-        <v>0.77274250295302604</v>
       </c>
       <c r="Y26">
         <v>0.85196180555555501</v>
@@ -1793,23 +1481,11 @@
       <c r="D27">
         <v>478</v>
       </c>
-      <c r="F27">
+      <c r="H27">
         <v>0.578125</v>
       </c>
-      <c r="H27">
+      <c r="J27">
         <v>6.328125</v>
-      </c>
-      <c r="J27">
-        <v>0.82096354166666596</v>
-      </c>
-      <c r="K27">
-        <v>0.755647451506826</v>
-      </c>
-      <c r="L27">
-        <v>0.73502834277650397</v>
-      </c>
-      <c r="M27">
-        <v>0.74743309983502204</v>
       </c>
       <c r="Y27">
         <v>0.87542534722222198</v>
@@ -1837,23 +1513,11 @@
       <c r="D28">
         <v>659</v>
       </c>
-      <c r="F28">
+      <c r="H28">
         <v>0.515625</v>
       </c>
-      <c r="H28">
+      <c r="J28">
         <v>5.625</v>
-      </c>
-      <c r="J28">
-        <v>0.83179687499999999</v>
-      </c>
-      <c r="K28">
-        <v>0.76988593973428499</v>
-      </c>
-      <c r="L28">
-        <v>0.72614575375604695</v>
-      </c>
-      <c r="M28">
-        <v>0.767242914376844</v>
       </c>
       <c r="Y28">
         <v>0.855303819444444</v>
@@ -1881,10 +1545,10 @@
       <c r="D29">
         <v>653</v>
       </c>
-      <c r="F29">
+      <c r="H29">
         <v>0.5625</v>
       </c>
-      <c r="H29">
+      <c r="J29">
         <v>4.265625</v>
       </c>
       <c r="Y29">
@@ -1913,10 +1577,10 @@
       <c r="D30">
         <v>596</v>
       </c>
-      <c r="F30">
+      <c r="H30">
         <v>0.578125</v>
       </c>
-      <c r="H30">
+      <c r="J30">
         <v>4.625</v>
       </c>
     </row>
@@ -1933,10 +1597,10 @@
       <c r="D31">
         <v>469</v>
       </c>
-      <c r="F31">
+      <c r="H31">
         <v>0.53125</v>
       </c>
-      <c r="H31">
+      <c r="J31">
         <v>5.609375</v>
       </c>
     </row>
@@ -1953,30 +1617,14 @@
       <c r="D32">
         <v>478</v>
       </c>
-      <c r="F32">
+      <c r="H32">
         <v>0.46875</v>
       </c>
-      <c r="H32">
+      <c r="J32">
         <v>4.15625</v>
       </c>
-      <c r="J32">
-        <f>AVERAGE(J2:J28)</f>
-        <v>0.84226916152263342</v>
-      </c>
-      <c r="K32">
-        <f>AVERAGE(K2:K28)</f>
-        <v>0.77933856471233864</v>
-      </c>
-      <c r="L32">
-        <f>AVERAGE(L2:L28)</f>
-        <v>0.74440631562669912</v>
-      </c>
-      <c r="M32">
-        <f>AVERAGE(M2:M28)</f>
-        <v>0.76067136784493095</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -1989,14 +1637,14 @@
       <c r="D33">
         <v>416</v>
       </c>
-      <c r="F33">
+      <c r="H33">
         <v>0.5</v>
       </c>
-      <c r="H33">
+      <c r="J33">
         <v>4.6875</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -2009,14 +1657,14 @@
       <c r="D34">
         <v>411</v>
       </c>
-      <c r="F34">
+      <c r="H34">
         <v>0.59375</v>
       </c>
-      <c r="H34">
+      <c r="J34">
         <v>4.09375</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -2029,14 +1677,14 @@
       <c r="D35">
         <v>433</v>
       </c>
-      <c r="F35">
+      <c r="H35">
         <v>0.53125</v>
       </c>
-      <c r="H35">
+      <c r="J35">
         <v>4.4375</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>0</v>
       </c>
@@ -2049,14 +1697,14 @@
       <c r="D36">
         <v>439</v>
       </c>
-      <c r="F36">
+      <c r="H36">
         <v>0.703125</v>
       </c>
-      <c r="H36">
+      <c r="J36">
         <v>4.34375</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -2069,14 +1717,14 @@
       <c r="D37">
         <v>423</v>
       </c>
-      <c r="F37">
+      <c r="H37">
         <v>0.609375</v>
       </c>
-      <c r="H37">
+      <c r="J37">
         <v>4.65625</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>0</v>
       </c>
@@ -2089,14 +1737,14 @@
       <c r="D38">
         <v>384</v>
       </c>
-      <c r="F38">
+      <c r="H38">
         <v>0.546875</v>
       </c>
-      <c r="H38">
+      <c r="J38">
         <v>5.453125</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>0</v>
       </c>
@@ -2109,14 +1757,14 @@
       <c r="D39">
         <v>443</v>
       </c>
-      <c r="F39">
+      <c r="H39">
         <v>0.484375</v>
       </c>
-      <c r="H39">
+      <c r="J39">
         <v>5.328125</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>0</v>
       </c>
@@ -2129,14 +1777,14 @@
       <c r="D40">
         <v>468</v>
       </c>
-      <c r="F40">
+      <c r="H40">
         <v>0.515625</v>
       </c>
-      <c r="H40">
+      <c r="J40">
         <v>4.8125</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>0</v>
       </c>
@@ -2149,14 +1797,14 @@
       <c r="D41">
         <v>417</v>
       </c>
-      <c r="F41">
+      <c r="H41">
         <v>0.5625</v>
       </c>
-      <c r="H41">
+      <c r="J41">
         <v>4.5</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>0</v>
       </c>
@@ -2169,14 +1817,14 @@
       <c r="D42">
         <v>410</v>
       </c>
-      <c r="F42">
+      <c r="H42">
         <v>0.578125</v>
       </c>
-      <c r="H42">
+      <c r="J42">
         <v>4.171875</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>0</v>
       </c>
@@ -2189,14 +1837,14 @@
       <c r="D43">
         <v>453</v>
       </c>
-      <c r="F43">
+      <c r="H43">
         <v>0.53125</v>
       </c>
-      <c r="H43">
+      <c r="J43">
         <v>4.0625</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>0</v>
       </c>
@@ -2209,14 +1857,14 @@
       <c r="D44">
         <v>406</v>
       </c>
-      <c r="F44">
+      <c r="H44">
         <v>0.53125</v>
       </c>
-      <c r="H44">
+      <c r="J44">
         <v>4.765625</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>0</v>
       </c>
@@ -2229,14 +1877,14 @@
       <c r="D45">
         <v>432</v>
       </c>
-      <c r="F45">
+      <c r="H45">
         <v>0.5625</v>
       </c>
-      <c r="H45">
+      <c r="J45">
         <v>4.21875</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>0</v>
       </c>
@@ -2249,14 +1897,14 @@
       <c r="D46">
         <v>396</v>
       </c>
-      <c r="F46">
+      <c r="H46">
         <v>0.609375</v>
       </c>
-      <c r="H46">
+      <c r="J46">
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>0</v>
       </c>
@@ -2269,14 +1917,14 @@
       <c r="D47">
         <v>454</v>
       </c>
-      <c r="F47">
+      <c r="H47">
         <v>0.65625</v>
       </c>
-      <c r="H47">
+      <c r="J47">
         <v>5.703125</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>0</v>
       </c>
@@ -2289,14 +1937,14 @@
       <c r="D48">
         <v>405</v>
       </c>
-      <c r="F48">
+      <c r="H48">
         <v>0.90625</v>
       </c>
-      <c r="H48">
+      <c r="J48">
         <v>5.90625</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>0</v>
       </c>
@@ -2309,14 +1957,14 @@
       <c r="D49">
         <v>431</v>
       </c>
-      <c r="F49">
+      <c r="H49">
         <v>0.796875</v>
       </c>
-      <c r="H49">
+      <c r="J49">
         <v>6.09375</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>0</v>
       </c>
@@ -2329,14 +1977,14 @@
       <c r="D50">
         <v>451</v>
       </c>
-      <c r="F50">
+      <c r="H50">
         <v>0.71875</v>
       </c>
-      <c r="H50">
+      <c r="J50">
         <v>7.671875</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B51">
         <f>AVERAGE(B1:B50)</f>
         <v>58.54</v>
@@ -2345,86 +1993,86 @@
         <f>AVERAGE(D1:D50)</f>
         <v>428.74</v>
       </c>
-      <c r="F51">
+      <c r="H51">
         <v>0.6875</v>
       </c>
-      <c r="H51">
+      <c r="J51">
         <v>5.65625</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F52">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H52">
         <v>0.625</v>
       </c>
-      <c r="H52">
+      <c r="J52">
         <v>5.109375</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F53">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H53">
         <v>0.5625</v>
       </c>
-      <c r="H53">
+      <c r="J53">
         <v>6.390625</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F54">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H54">
         <v>0.578125</v>
       </c>
-      <c r="H54">
+      <c r="J54">
         <v>4.796875</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F55">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H55">
         <v>0.71875</v>
       </c>
-      <c r="H55">
+      <c r="J55">
         <v>3.953125</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F56">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H56">
         <v>0.796875</v>
       </c>
-      <c r="H56">
+      <c r="J56">
         <v>4.703125</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F57">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H57">
         <v>0.671875</v>
       </c>
-      <c r="H57">
+      <c r="J57">
         <v>4.796875</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F58">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H58">
         <v>0.59375</v>
       </c>
-      <c r="H58">
+      <c r="J58">
         <v>4.59375</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F59">
-        <f>AVERAGE(F1:F58)</f>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H59">
+        <f>AVERAGE(H1:H58)</f>
         <v>0.59832974137931039</v>
       </c>
-      <c r="H59">
+      <c r="J59">
         <v>4.109375</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H60">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J60">
         <v>4.25</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H61">
-        <f>AVERAGE(H1:H60)</f>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J61">
+        <f>AVERAGE(J1:J60)</f>
         <v>5.2145833333333336</v>
       </c>
     </row>
